--- a/medicine/Enfance/Claude_Appell/Claude_Appell.xlsx
+++ b/medicine/Enfance/Claude_Appell/Claude_Appell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Appell,  né à Paris 5e le 19 janvier 1919 et mort à Paris 13e le 31 janvier 1976[1], est un auteur français pour la jeunesse, rédacteur en chef de journaux et de collections littéraires pour enfants, et homme de radio.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Appell,  né à Paris 5e le 19 janvier 1919 et mort à Paris 13e le 31 janvier 1976, est un auteur français pour la jeunesse, rédacteur en chef de journaux et de collections littéraires pour enfants, et homme de radio.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le petit-fils de Paul Appell qui avait fondé en 1920 la Cité universitaire de Paris, et le fils de Pierre Appell, officier de marine puis député et sous-secrétaire d'État.
 Le 23 août 1941, à Perigueux (Dordogne), il se marie avec Jany Salon.
-En 1946, il quitte son poste dans une entreprise de papeterie où il avait pourtant réussi, pour se consacrer à la littérature de jeunesse[2].
-Il devient rédacteur du journal Terre des jeunes[3] en 1949, jusqu'à la fin de la parution en 1972. Entre 1966 et 1976[4], il est rédacteur en chef de Francs-Jeux (bimensuel destiné aux enfants de 8 à 12 ans, créé en mai 1946)[4], et le reste jusqu'à sa mort[5].
-En 1956, il est de l'émission hebdomadaire de radio Accusé, levez-vous ! sur Radio Luxembourg[6].
+En 1946, il quitte son poste dans une entreprise de papeterie où il avait pourtant réussi, pour se consacrer à la littérature de jeunesse.
+Il devient rédacteur du journal Terre des jeunes en 1949, jusqu'à la fin de la parution en 1972. Entre 1966 et 1976, il est rédacteur en chef de Francs-Jeux (bimensuel destiné aux enfants de 8 à 12 ans, créé en mai 1946), et le reste jusqu'à sa mort.
+En 1956, il est de l'émission hebdomadaire de radio Accusé, levez-vous ! sur Radio Luxembourg.
 De 1964 à 1975, il est également directeur de la collection Série Quinze chez Gautier-Languereau.
 À partir de 1948, il publie des livres pour enfants et adolescents, notamment chez Alsatia (collection Signe de Piste). Il s'intéresse entre autres à la conquête de l'espace.
-Certaines de ses œuvres sont signées Paul Cogan[7].
+Certaines de ses œuvres sont signées Paul Cogan.
 Il adhère au P.S.U. lors de sa création.
 Il s'est remarié à Marie-Madeleine Haillot (1921-2006).
 </t>
@@ -551,9 +565,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les cent camarades , illustrations Cyril, Éditions Alsatia, coll. Signe de piste , SDP 33, 1948; réédition 1956 - adapté en 1957 au cinéma par Georges Ferney[8]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les cent camarades , illustrations Cyril, Éditions Alsatia, coll. Signe de piste , SDP 33, 1948; réédition 1956 - adapté en 1957 au cinéma par Georges Ferney
 La sixième fenêtre, illustrations Jacques Pecnard, Éditions de l'Arc, coll. L’Equipée, no 6, Paris, 1948
 Haut le champ , illustrations Cyril, Éditions Alsatia, coll. Signe de piste, SDP 41, 1949 (prix Larigaudie 1950)
 Les Zoulaks gardent l'incognito, illustrations André Galland, Éditions Fleurus et Gautier-Languereau, coll. Jean-François, 1951 (Paul Cogan)
@@ -570,7 +586,7 @@
 Les pionniers de l'espace, illustrations Cyril, Fleurus /Gautier-Languereau, Collection Jean-François, 1959 (Paul Cogan)
 Dans l'espace, Librairie Charpentier, coll. Lecture et loisir, ill. Georges Brient, 1960
 Un ami en danger, éditions de l'amitié-G. T. Rageot, coll. Bibliothèque de l'amitié, 1965
-Les Indiens, Gautier-Languereau, coll. Grands livres illustrés, Paris, 1965 - traduit en anglais et fortement critiqué aux USA pour son approche[9],[10]
+Les Indiens, Gautier-Languereau, coll. Grands livres illustrés, Paris, 1965 - traduit en anglais et fortement critiqué aux USA pour son approche,
 Les cow-boys, Gautier-Languereau, 1965
 Le voleur d'autographes, éditions Deux Coqs d'Or, coll. Étoile d'Or, série Les aventures des Snapten, tome I, no 78, 1966
 Le singe du Pharaon, éditions Deux Coqs d'Or, coll. Étoile d'Or, série Les aventures des Snapten, tome II, no 56, illustrations Giovanni Giannini, 1967
@@ -605,7 +621,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Panthère Blanche, Theodore J. Waldeck, illustrations Kurt Wiese, éditions de l'Amitié G. T.-Rageot, coll. Heures joyeuses, no 77, 1950</t>
         </is>
